--- a/Data/EC/NIT-9007781731.xlsx
+++ b/Data/EC/NIT-9007781731.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5CEDB8A-CC80-455B-8173-847D34E197E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{315D25DC-EF1D-4CF6-8BC1-0D949E6141EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24372F5A-3CF0-48F1-9CA2-424531AEE708}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3E940CE6-E8B9-4803-A97D-A8B3ABEF4DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="117">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,298 +65,295 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1143357073</t>
-  </si>
-  <si>
-    <t>JAVIER ENRIQUE FLOREZ ESPINOSA</t>
+    <t>1047365565</t>
+  </si>
+  <si>
+    <t>JAISSON ALEXANDER CAMPO MEZA</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>7144328</t>
+  </si>
+  <si>
+    <t>ADRIAN JESUS BENITEZ REYES</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1047365565</t>
-  </si>
-  <si>
-    <t>JAISSON ALEXANDER CAMPO MEZA</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>7144328</t>
-  </si>
-  <si>
-    <t>ADRIAN JESUS BENITEZ REYES</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -455,7 +452,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -468,9 +467,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -670,23 +667,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,10 +711,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,7 +767,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B59D49-2692-0FAA-09A6-FFD3D4F684EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF41D389-2404-665F-A58B-9072430418B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1121,8 +1118,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6780136D-807E-42E4-9CC4-6DA2B61B632A}">
-  <dimension ref="B2:J118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CE553A-C6EC-40E5-827F-261EBBF613AE}">
+  <dimension ref="B2:J113"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1133,7 +1130,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1146,7 +1143,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1191,7 +1188,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1223,12 +1220,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3115833</v>
+        <v>2835082</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1239,17 +1236,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" s="5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1276,13 +1273,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1299,10 +1296,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>1839</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>689454</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1310,22 +1307,22 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>20833</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1333,22 +1330,22 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1356,22 +1353,22 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1379,22 +1376,22 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1402,22 +1399,22 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1425,22 +1422,22 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>1839</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1448,16 +1445,16 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1471,16 +1468,16 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1494,16 +1491,16 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1517,16 +1514,16 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1540,16 +1537,16 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1563,16 +1560,16 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1586,16 +1583,16 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1609,16 +1606,16 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1632,16 +1629,16 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1655,16 +1652,16 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1678,16 +1675,16 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1701,16 +1698,16 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1724,16 +1721,16 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1747,16 +1744,16 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1770,16 +1767,16 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1793,16 +1790,16 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1816,16 +1813,16 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1839,16 +1836,16 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1862,16 +1859,16 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1885,16 +1882,16 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1908,16 +1905,16 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1931,16 +1928,16 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1954,16 +1951,16 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1977,16 +1974,16 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -2000,16 +1997,16 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -2023,16 +2020,16 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -2046,16 +2043,16 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -2069,16 +2066,16 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -2092,16 +2089,16 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2115,16 +2112,16 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2138,16 +2135,16 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2161,16 +2158,16 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2184,16 +2181,16 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2207,16 +2204,16 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2230,16 +2227,16 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2253,16 +2250,16 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2276,16 +2273,16 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2299,16 +2296,16 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2322,16 +2319,16 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2345,16 +2342,16 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2368,16 +2365,16 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2391,16 +2388,16 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2414,16 +2411,16 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2437,16 +2434,16 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2460,16 +2457,16 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2483,16 +2480,16 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2506,16 +2503,16 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2529,16 +2526,16 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2552,16 +2549,16 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2575,16 +2572,16 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2598,16 +2595,16 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2621,16 +2618,16 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2644,16 +2641,16 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2667,16 +2664,16 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2690,16 +2687,16 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2713,16 +2710,16 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2736,16 +2733,16 @@
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2759,16 +2756,16 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2782,16 +2779,16 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2805,16 +2802,16 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2828,16 +2825,16 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2851,16 +2848,16 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2874,16 +2871,16 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2897,16 +2894,16 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2920,16 +2917,16 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2943,16 +2940,16 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2966,16 +2963,16 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2989,16 +2986,16 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -3012,16 +3009,16 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3035,16 +3032,16 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3058,16 +3055,16 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3081,16 +3078,16 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3104,16 +3101,16 @@
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3127,16 +3124,16 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3150,16 +3147,16 @@
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3173,16 +3170,16 @@
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
@@ -3196,16 +3193,16 @@
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3219,16 +3216,16 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3242,16 +3239,16 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3265,16 +3262,16 @@
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
@@ -3288,16 +3285,16 @@
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3311,16 +3308,16 @@
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F104" s="18">
         <v>31249</v>
@@ -3334,16 +3331,16 @@
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3357,16 +3354,16 @@
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
@@ -3379,171 +3376,56 @@
       <c r="J106" s="20"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F107" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G107" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F108" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G108" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F109" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G109" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F110" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G110" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E111" s="16" t="s">
+      <c r="B107" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F111" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G111" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="F107" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G107" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="26"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F112" s="24">
-        <v>20833</v>
-      </c>
-      <c r="G112" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="32" t="s">
+      <c r="B112" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="32"/>
+      <c r="H112" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" s="32"/>
+      <c r="H113" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="32"/>
-      <c r="H117" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C118" s="32"/>
-      <c r="H118" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="H118:J118"/>
-    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="H112:J112"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9007781731.xlsx
+++ b/Data/EC/NIT-9007781731.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{315D25DC-EF1D-4CF6-8BC1-0D949E6141EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D8BF4D8-1E47-4607-B3B8-8552E8B0A1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3E940CE6-E8B9-4803-A97D-A8B3ABEF4DFD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8D46D8B7-5447-4DDE-812F-98B5BBBDBEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="118">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -452,9 +455,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -467,7 +468,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -661,29 +664,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,19 +705,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -767,7 +776,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF41D389-2404-665F-A58B-9072430418B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2822655-5FA2-5162-7D32-54E19CAE971E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1118,8 +1127,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CE553A-C6EC-40E5-827F-261EBBF613AE}">
-  <dimension ref="B2:J113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BFA141-367F-4FF4-B2A9-2DA995A321DE}">
+  <dimension ref="B2:J114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1141,57 +1150,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1207,7 +1216,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9007781731</v>
       </c>
@@ -1220,12 +1229,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>2835082</v>
+        <v>2866331</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1236,17 +1245,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F13" s="5">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1273,13 +1282,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>111</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1292,18 +1301,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>1839</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>689454</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1315,18 +1324,18 @@
       <c r="D17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>20833</v>
       </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1338,18 +1347,18 @@
       <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1361,18 +1370,18 @@
       <c r="D19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1384,18 +1393,18 @@
       <c r="D20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1407,18 +1416,18 @@
       <c r="D21" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1430,18 +1439,18 @@
       <c r="D22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1453,18 +1462,18 @@
       <c r="D23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1476,18 +1485,18 @@
       <c r="D24" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1499,18 +1508,18 @@
       <c r="D25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1522,18 +1531,18 @@
       <c r="D26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1545,18 +1554,18 @@
       <c r="D27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1568,18 +1577,18 @@
       <c r="D28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1591,18 +1600,18 @@
       <c r="D29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1614,18 +1623,18 @@
       <c r="D30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1637,18 +1646,18 @@
       <c r="D31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1660,18 +1669,18 @@
       <c r="D32" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1683,18 +1692,18 @@
       <c r="D33" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1706,18 +1715,18 @@
       <c r="D34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1729,18 +1738,18 @@
       <c r="D35" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1752,18 +1761,18 @@
       <c r="D36" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1775,18 +1784,18 @@
       <c r="D37" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1798,18 +1807,18 @@
       <c r="D38" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1821,18 +1830,18 @@
       <c r="D39" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1844,18 +1853,18 @@
       <c r="D40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1867,18 +1876,18 @@
       <c r="D41" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1890,18 +1899,18 @@
       <c r="D42" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1913,18 +1922,18 @@
       <c r="D43" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1936,18 +1945,18 @@
       <c r="D44" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1959,18 +1968,18 @@
       <c r="D45" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1982,18 +1991,18 @@
       <c r="D46" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -2005,18 +2014,18 @@
       <c r="D47" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G47" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G47" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -2028,18 +2037,18 @@
       <c r="D48" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -2051,18 +2060,18 @@
       <c r="D49" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -2074,18 +2083,18 @@
       <c r="D50" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G50" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G50" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2097,18 +2106,18 @@
       <c r="D51" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G51" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G51" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2120,18 +2129,18 @@
       <c r="D52" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G52" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G52" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2143,18 +2152,18 @@
       <c r="D53" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F53" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G53" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G53" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2166,18 +2175,18 @@
       <c r="D54" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F54" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G54" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G54" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2189,18 +2198,18 @@
       <c r="D55" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F55" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G55" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G55" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2212,18 +2221,18 @@
       <c r="D56" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G56" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G56" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2235,18 +2244,18 @@
       <c r="D57" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G57" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G57" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2258,18 +2267,18 @@
       <c r="D58" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F58" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G58" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G58" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2281,18 +2290,18 @@
       <c r="D59" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F59" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G59" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G59" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2304,18 +2313,18 @@
       <c r="D60" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G60" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G60" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2327,18 +2336,18 @@
       <c r="D61" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G61" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G61" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2350,18 +2359,18 @@
       <c r="D62" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F62" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G62" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G62" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2373,18 +2382,18 @@
       <c r="D63" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F63" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G63" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G63" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2396,18 +2405,18 @@
       <c r="D64" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F64" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G64" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G64" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2419,18 +2428,18 @@
       <c r="D65" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F65" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G65" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G65" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2442,18 +2451,18 @@
       <c r="D66" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F66" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G66" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G66" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2465,18 +2474,18 @@
       <c r="D67" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F67" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G67" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G67" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2488,18 +2497,18 @@
       <c r="D68" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F68" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G68" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G68" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2511,18 +2520,18 @@
       <c r="D69" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F69" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G69" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G69" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2534,18 +2543,18 @@
       <c r="D70" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F70" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G70" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G70" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2557,18 +2566,18 @@
       <c r="D71" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F71" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G71" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G71" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2580,18 +2589,18 @@
       <c r="D72" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F72" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G72" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G72" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2603,18 +2612,18 @@
       <c r="D73" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F73" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G73" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G73" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2626,18 +2635,18 @@
       <c r="D74" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F74" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G74" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G74" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2649,18 +2658,18 @@
       <c r="D75" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G75" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G75" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2672,18 +2681,18 @@
       <c r="D76" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F76" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G76" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G76" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2695,18 +2704,18 @@
       <c r="D77" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F77" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G77" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G77" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2718,18 +2727,18 @@
       <c r="D78" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F78" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G78" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G78" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2741,18 +2750,18 @@
       <c r="D79" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F79" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G79" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G79" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2764,18 +2773,18 @@
       <c r="D80" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G80" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G80" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2787,18 +2796,18 @@
       <c r="D81" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F81" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G81" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G81" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2810,18 +2819,18 @@
       <c r="D82" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F82" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G82" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G82" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2833,18 +2842,18 @@
       <c r="D83" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F83" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G83" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G83" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2856,18 +2865,18 @@
       <c r="D84" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F84" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G84" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G84" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2879,18 +2888,18 @@
       <c r="D85" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F85" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G85" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G85" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2902,18 +2911,18 @@
       <c r="D86" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F86" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G86" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G86" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2925,18 +2934,18 @@
       <c r="D87" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F87" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G87" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G87" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2948,18 +2957,18 @@
       <c r="D88" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F88" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G88" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G88" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2971,18 +2980,18 @@
       <c r="D89" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F89" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G89" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G89" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2994,18 +3003,18 @@
       <c r="D90" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F90" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G90" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G90" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -3017,18 +3026,18 @@
       <c r="D91" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F91" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G91" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G91" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -3040,18 +3049,18 @@
       <c r="D92" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F92" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G92" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F92" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G92" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -3063,18 +3072,18 @@
       <c r="D93" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F93" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G93" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="F93" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G93" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -3086,18 +3095,18 @@
       <c r="D94" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F94" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G94" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F94" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G94" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -3109,18 +3118,18 @@
       <c r="D95" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F95" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G95" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G95" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3132,18 +3141,18 @@
       <c r="D96" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F96" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G96" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="F96" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G96" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3155,18 +3164,18 @@
       <c r="D97" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F97" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G97" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="F97" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G97" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3178,18 +3187,18 @@
       <c r="D98" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F98" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G98" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="F98" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G98" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3201,18 +3210,18 @@
       <c r="D99" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F99" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G99" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G99" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3224,18 +3233,18 @@
       <c r="D100" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F100" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G100" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G100" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3247,18 +3256,18 @@
       <c r="D101" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F101" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G101" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="F101" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G101" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3270,18 +3279,18 @@
       <c r="D102" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F102" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G102" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="F102" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G102" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3293,18 +3302,18 @@
       <c r="D103" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F103" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G103" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="F103" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G103" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3316,18 +3325,18 @@
       <c r="D104" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F104" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G104" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="F104" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G104" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3339,18 +3348,18 @@
       <c r="D105" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F105" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G105" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G105" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3362,70 +3371,93 @@
       <c r="D106" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F106" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G106" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="F106" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G106" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" s="22" t="s">
+      <c r="B107" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F107" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G107" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="26"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" s="32"/>
-      <c r="H112" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
+      <c r="F107" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G107" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F108" s="26">
+        <v>31249</v>
+      </c>
+      <c r="G108" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C113" s="32"/>
+      <c r="B113" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="34"/>
       <c r="H113" s="1" t="s">
         <v>116</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="34"/>
+      <c r="H114" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B114:C114"/>
     <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="H114:J114"/>
     <mergeCell ref="H113:J113"/>
-    <mergeCell ref="H112:J112"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
